--- a/express/public/MonsterBall/Monster ball_prop.xlsx
+++ b/express/public/MonsterBall/Monster ball_prop.xlsx
@@ -21,7 +21,8 @@
         <t xml:space="preserve">1.恢复耐久度
 2.全屏攻击怪物
 3.全部怪物停顿
-4.加分数</t>
+4.加分数
+5. 攻击物</t>
       </text>
     </comment>
   </commentList>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>编号</t>
   </si>
@@ -55,6 +56,9 @@
     <t>增加分数</t>
   </si>
   <si>
+    <t>球</t>
+  </si>
+  <si>
     <t>number</t>
   </si>
   <si>
@@ -88,6 +92,9 @@
     <t>subjoin</t>
   </si>
   <si>
+    <t>ball</t>
+  </si>
+  <si>
     <t>修补</t>
   </si>
   <si>
@@ -98,6 +105,15 @@
   </si>
   <si>
     <t>金币</t>
+  </si>
+  <si>
+    <t>普通球</t>
+  </si>
+  <si>
+    <t>火箭</t>
+  </si>
+  <si>
+    <t>麻醉球</t>
   </si>
 </sst>
 </file>
@@ -129,23 +145,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -160,14 +165,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -179,42 +176,37 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -242,166 +234,242 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>8</v>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>3001.0</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5">
         <v>1.0</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <v>0.0</v>
       </c>
-      <c r="E4" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="E4" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="F4" s="4">
         <v>50.0</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
         <v>-5.0</v>
       </c>
+      <c r="I4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>3002.0</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5">
         <v>2.0</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>0.0</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="4">
         <v>40.0</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H5" s="4">
         <v>-20.0</v>
       </c>
+      <c r="I5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="4">
         <v>3003.0</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5">
         <v>3.0</v>
       </c>
-      <c r="D6" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D6" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E6" s="5">
         <v>3.0</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
         <v>-10.0</v>
       </c>
+      <c r="I6" s="6"/>
     </row>
     <row r="7">
-      <c r="A7" s="8">
+      <c r="A7" s="4">
         <v>3004.0</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="7">
         <v>4.0</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7">
         <v>20.0</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4">
+        <v>3005.0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>2001.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4">
+        <v>3006.0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>2002.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4">
+        <v>3007.0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>2003.0</v>
       </c>
     </row>
   </sheetData>
